--- a/excel_source/일정표.xlsx
+++ b/excel_source/일정표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="박광현" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="0616" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="0617" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="0618" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="0619" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="478">
   <si>
     <t xml:space="preserve">분류</t>
   </si>
@@ -266,19 +267,19 @@
     <t xml:space="preserve">키오스크 화면은 세트 옵션 모달을 구현한다</t>
   </si>
   <si>
+    <t xml:space="preserve">`-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">키오스크 화면은 개수 옵션 모달을 구현한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">키오스크 화면은 장바구니 모션 모달을 구현한다</t>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">키오스크 화면은 개수 옵션 모달을 구현한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">키오스크 화면은 장바구니 모션 모달을 구현한다</t>
   </si>
   <si>
     <t xml:space="preserve">`-011</t>
@@ -1502,6 +1503,22 @@
     <t xml:space="preserve">1. 호기롭게 UI가 많은 맥도날드 키오스크를 도전해보았지만,
 5일 내에 완성하기엔 무리인 것 같다.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. UI 구현 계속
+2. 통합테스트 기초</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. UI 구현 계속 진행중(80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 꽤 많은 진행이 있음에도 아직 만들어야할 UI가 남았다. 맵핑이 주로 할일이라, 막히는 부분은 크게 없었다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 최대한 할 수 있는데까지 해보는게 목표이다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트가 연장되었다.  포기하지 않고 계속 작업하는 것이 목표이다.</t>
   </si>
 </sst>
 </file>
@@ -2546,9 +2563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5394960</xdr:colOff>
+      <xdr:colOff>5394600</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2562,7 +2579,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8416440"/>
-          <a:ext cx="13490640" cy="35432280"/>
+          <a:ext cx="13490280" cy="35431920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2583,9 +2600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3554640</xdr:colOff>
+      <xdr:colOff>3554280</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2599,7 +2616,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="280800" y="4139280"/>
-          <a:ext cx="11369520" cy="4140000"/>
+          <a:ext cx="11369160" cy="4139640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3003,8 +3020,8 @@
   </sheetPr>
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3025,7 +3042,7 @@
       </c>
       <c r="D1" s="1" t="n">
         <f aca="false">COUNTIF(F4:F217, "Y")</f>
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G1" s="15"/>
     </row>
@@ -3042,7 +3059,7 @@
       </c>
       <c r="D2" s="17" t="n">
         <f aca="false">(COUNTIF(F4:F217, "Y")/B2)</f>
-        <v>0.200934579439252</v>
+        <v>0.345794392523364</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -3239,7 +3256,7 @@
         <v>77</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G11" s="15"/>
     </row>
@@ -3254,13 +3271,13 @@
         <v>60</v>
       </c>
       <c r="D12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>80</v>
-      </c>
       <c r="F12" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G12" s="15"/>
     </row>
@@ -3275,13 +3292,13 @@
         <v>60</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>82</v>
-      </c>
       <c r="F13" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G13" s="15"/>
     </row>
@@ -3302,7 +3319,7 @@
         <v>84</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G14" s="15"/>
     </row>
@@ -3323,7 +3340,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G15" s="15"/>
     </row>
@@ -3344,7 +3361,7 @@
         <v>88</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G16" s="15"/>
     </row>
@@ -3365,7 +3382,7 @@
         <v>90</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G17" s="15"/>
     </row>
@@ -3386,7 +3403,7 @@
         <v>92</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G18" s="15"/>
     </row>
@@ -3494,7 +3511,7 @@
         <v>103</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G23" s="15"/>
     </row>
@@ -3557,7 +3574,7 @@
         <v>109</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G26" s="15"/>
     </row>
@@ -3578,7 +3595,7 @@
         <v>111</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G27" s="15"/>
     </row>
@@ -3599,7 +3616,7 @@
         <v>113</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G28" s="15"/>
     </row>
@@ -3620,7 +3637,7 @@
         <v>115</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G29" s="15"/>
     </row>
@@ -3641,7 +3658,7 @@
         <v>117</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G30" s="15"/>
     </row>
@@ -3662,7 +3679,7 @@
         <v>119</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G31" s="15"/>
     </row>
@@ -3683,7 +3700,7 @@
         <v>121</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G32" s="15"/>
     </row>
@@ -3704,7 +3721,7 @@
         <v>123</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G33" s="15"/>
     </row>
@@ -3770,7 +3787,7 @@
         <v>131</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G36" s="15"/>
     </row>
@@ -3791,7 +3808,7 @@
         <v>134</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G37" s="15"/>
     </row>
@@ -3812,7 +3829,7 @@
         <v>136</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G38" s="15"/>
     </row>
@@ -3833,7 +3850,7 @@
         <v>138</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G39" s="15"/>
     </row>
@@ -3917,7 +3934,7 @@
         <v>147</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G43" s="15"/>
     </row>
@@ -3959,7 +3976,7 @@
         <v>151</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G45" s="15"/>
     </row>
@@ -4106,7 +4123,7 @@
         <v>165</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G52" s="15"/>
     </row>
@@ -4148,7 +4165,7 @@
         <v>169</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G54" s="15"/>
     </row>
@@ -4358,7 +4375,7 @@
         <v>189</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G64" s="15"/>
     </row>
@@ -4421,7 +4438,7 @@
         <v>195</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G67" s="15"/>
     </row>
@@ -4442,7 +4459,7 @@
         <v>198</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G68" s="15"/>
     </row>
@@ -4484,7 +4501,7 @@
         <v>202</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G70" s="15"/>
     </row>
@@ -4547,7 +4564,7 @@
         <v>208</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G73" s="15"/>
     </row>
@@ -4568,7 +4585,7 @@
         <v>210</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G74" s="15"/>
     </row>
@@ -4589,7 +4606,7 @@
         <v>212</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G75" s="15"/>
     </row>
@@ -4610,7 +4627,7 @@
         <v>214</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G76" s="15"/>
     </row>
@@ -4631,7 +4648,7 @@
         <v>216</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G77" s="15"/>
     </row>
@@ -4652,7 +4669,7 @@
         <v>218</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G78" s="15"/>
     </row>
@@ -4673,7 +4690,7 @@
         <v>221</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G79" s="15"/>
     </row>
@@ -4694,7 +4711,7 @@
         <v>223</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G80" s="15"/>
     </row>
@@ -4715,7 +4732,7 @@
         <v>225</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G81" s="15"/>
     </row>
@@ -4736,7 +4753,7 @@
         <v>227</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G82" s="15"/>
     </row>
@@ -4757,7 +4774,7 @@
         <v>230</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G83" s="15"/>
     </row>
@@ -4778,7 +4795,7 @@
         <v>232</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G84" s="15"/>
     </row>
@@ -4799,7 +4816,7 @@
         <v>234</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G85" s="15"/>
     </row>
@@ -4820,7 +4837,7 @@
         <v>236</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G86" s="15"/>
     </row>
@@ -4841,7 +4858,7 @@
         <v>238</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G87" s="15"/>
     </row>
@@ -4862,7 +4879,7 @@
         <v>240</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G88" s="15"/>
     </row>
@@ -4883,7 +4900,7 @@
         <v>242</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G89" s="15"/>
     </row>
@@ -4904,7 +4921,7 @@
         <v>244</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G90" s="15"/>
     </row>
@@ -4925,7 +4942,7 @@
         <v>246</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G91" s="15"/>
     </row>
@@ -4946,7 +4963,7 @@
         <v>248</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G92" s="15"/>
     </row>
@@ -4967,7 +4984,7 @@
         <v>251</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G93" s="15"/>
     </row>
@@ -4988,7 +5005,7 @@
         <v>253</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G94" s="15"/>
     </row>
@@ -5009,7 +5026,7 @@
         <v>256</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G95" s="15"/>
     </row>
@@ -5030,7 +5047,7 @@
         <v>258</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G96" s="15"/>
     </row>
@@ -5051,7 +5068,7 @@
         <v>260</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G97" s="15"/>
     </row>
@@ -5072,7 +5089,7 @@
         <v>262</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G98" s="15"/>
     </row>
@@ -5093,7 +5110,7 @@
         <v>264</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G99" s="15"/>
     </row>
@@ -5114,7 +5131,7 @@
         <v>266</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G100" s="15"/>
     </row>
@@ -5135,7 +5152,7 @@
         <v>269</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G101" s="15"/>
     </row>
@@ -5156,7 +5173,7 @@
         <v>271</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G102" s="15"/>
     </row>
@@ -5177,7 +5194,7 @@
         <v>273</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G103" s="15"/>
     </row>
@@ -5198,7 +5215,7 @@
         <v>276</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G104" s="15"/>
     </row>
@@ -5219,7 +5236,7 @@
         <v>278</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G105" s="15"/>
     </row>
@@ -5240,7 +5257,7 @@
         <v>280</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G106" s="15"/>
     </row>
@@ -5261,7 +5278,7 @@
         <v>282</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G107" s="15"/>
     </row>
@@ -5282,7 +5299,7 @@
         <v>284</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G108" s="15"/>
     </row>
@@ -5303,7 +5320,7 @@
         <v>286</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G109" s="15"/>
     </row>
@@ -5324,7 +5341,7 @@
         <v>288</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G110" s="15"/>
     </row>
@@ -5345,7 +5362,7 @@
         <v>290</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G111" s="15"/>
     </row>
@@ -5366,7 +5383,7 @@
         <v>292</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G112" s="15"/>
     </row>
@@ -5387,7 +5404,7 @@
         <v>294</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G113" s="15"/>
     </row>
@@ -5408,7 +5425,7 @@
         <v>297</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G114" s="15"/>
     </row>
@@ -5429,7 +5446,7 @@
         <v>299</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G115" s="15"/>
     </row>
@@ -5450,7 +5467,7 @@
         <v>301</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G116" s="15"/>
     </row>
@@ -5471,7 +5488,7 @@
         <v>303</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G117" s="15"/>
     </row>
@@ -5492,7 +5509,7 @@
         <v>305</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G118" s="15"/>
     </row>
@@ -5513,7 +5530,7 @@
         <v>307</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G119" s="15"/>
     </row>
@@ -5534,7 +5551,7 @@
         <v>309</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G120" s="15"/>
     </row>
@@ -5555,7 +5572,7 @@
         <v>311</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G121" s="15"/>
     </row>
@@ -5576,7 +5593,7 @@
         <v>313</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G122" s="15"/>
     </row>
@@ -5597,7 +5614,7 @@
         <v>316</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G123" s="15"/>
     </row>
@@ -5618,7 +5635,7 @@
         <v>318</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G124" s="15"/>
     </row>
@@ -5639,7 +5656,7 @@
         <v>321</v>
       </c>
       <c r="F125" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G125" s="20"/>
     </row>
@@ -5660,7 +5677,7 @@
         <v>323</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G126" s="15"/>
     </row>
@@ -5681,7 +5698,7 @@
         <v>325</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G127" s="15"/>
     </row>
@@ -5702,7 +5719,7 @@
         <v>327</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G128" s="15"/>
     </row>
@@ -5723,7 +5740,7 @@
         <v>329</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G129" s="15"/>
     </row>
@@ -5744,7 +5761,7 @@
         <v>332</v>
       </c>
       <c r="F130" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G130" s="15"/>
     </row>
@@ -5765,7 +5782,7 @@
         <v>334</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G131" s="15"/>
     </row>
@@ -5786,7 +5803,7 @@
         <v>336</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G132" s="15"/>
     </row>
@@ -5807,7 +5824,7 @@
         <v>338</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G133" s="15"/>
     </row>
@@ -5828,7 +5845,7 @@
         <v>342</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G134" s="20"/>
     </row>
@@ -5849,7 +5866,7 @@
         <v>343</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G135" s="15"/>
     </row>
@@ -5870,7 +5887,7 @@
         <v>344</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G136" s="15"/>
     </row>
@@ -5891,7 +5908,7 @@
         <v>345</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G137" s="15"/>
     </row>
@@ -5912,7 +5929,7 @@
         <v>346</v>
       </c>
       <c r="F138" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G138" s="15"/>
     </row>
@@ -5933,7 +5950,7 @@
         <v>347</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G139" s="15"/>
     </row>
@@ -5954,7 +5971,7 @@
         <v>348</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G140" s="15"/>
     </row>
@@ -5975,7 +5992,7 @@
         <v>349</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G141" s="15"/>
     </row>
@@ -5990,13 +6007,13 @@
         <v>341</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E142" s="21" t="s">
         <v>350</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G142" s="15"/>
     </row>
@@ -6011,13 +6028,13 @@
         <v>341</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E143" s="21" t="s">
         <v>351</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G143" s="15"/>
     </row>
@@ -6038,7 +6055,7 @@
         <v>352</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G144" s="15"/>
     </row>
@@ -6059,7 +6076,7 @@
         <v>353</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G145" s="15"/>
     </row>
@@ -6080,7 +6097,7 @@
         <v>354</v>
       </c>
       <c r="F146" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G146" s="15"/>
     </row>
@@ -6101,7 +6118,7 @@
         <v>355</v>
       </c>
       <c r="F147" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G147" s="15"/>
     </row>
@@ -6122,7 +6139,7 @@
         <v>356</v>
       </c>
       <c r="F148" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G148" s="15"/>
     </row>
@@ -6143,7 +6160,7 @@
         <v>357</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G149" s="15"/>
     </row>
@@ -6164,7 +6181,7 @@
         <v>358</v>
       </c>
       <c r="F150" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G150" s="15"/>
     </row>
@@ -6185,7 +6202,7 @@
         <v>359</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G151" s="15"/>
     </row>
@@ -6206,7 +6223,7 @@
         <v>360</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G152" s="15"/>
     </row>
@@ -6227,7 +6244,7 @@
         <v>361</v>
       </c>
       <c r="F153" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G153" s="15"/>
     </row>
@@ -6248,7 +6265,7 @@
         <v>362</v>
       </c>
       <c r="F154" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G154" s="15"/>
     </row>
@@ -6269,7 +6286,7 @@
         <v>363</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G155" s="15"/>
     </row>
@@ -6290,7 +6307,7 @@
         <v>364</v>
       </c>
       <c r="F156" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G156" s="15"/>
     </row>
@@ -6311,7 +6328,7 @@
         <v>365</v>
       </c>
       <c r="F157" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G157" s="15"/>
     </row>
@@ -6332,7 +6349,7 @@
         <v>366</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G158" s="15"/>
     </row>
@@ -6353,7 +6370,7 @@
         <v>367</v>
       </c>
       <c r="F159" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G159" s="15"/>
     </row>
@@ -6374,7 +6391,7 @@
         <v>368</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G160" s="15"/>
     </row>
@@ -6395,7 +6412,7 @@
         <v>369</v>
       </c>
       <c r="F161" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G161" s="15"/>
     </row>
@@ -6416,7 +6433,7 @@
         <v>370</v>
       </c>
       <c r="F162" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G162" s="15"/>
     </row>
@@ -6437,7 +6454,7 @@
         <v>371</v>
       </c>
       <c r="F163" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G163" s="15"/>
     </row>
@@ -6458,7 +6475,7 @@
         <v>373</v>
       </c>
       <c r="F164" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G164" s="15"/>
     </row>
@@ -6479,7 +6496,7 @@
         <v>374</v>
       </c>
       <c r="F165" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G165" s="15"/>
     </row>
@@ -6500,7 +6517,7 @@
         <v>375</v>
       </c>
       <c r="F166" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G166" s="15"/>
     </row>
@@ -6521,7 +6538,7 @@
         <v>376</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G167" s="15"/>
     </row>
@@ -6542,7 +6559,7 @@
         <v>377</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G168" s="15"/>
     </row>
@@ -6563,7 +6580,7 @@
         <v>378</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G169" s="15"/>
     </row>
@@ -6584,7 +6601,7 @@
         <v>379</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G170" s="15"/>
     </row>
@@ -6605,7 +6622,7 @@
         <v>380</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G171" s="15"/>
     </row>
@@ -6626,7 +6643,7 @@
         <v>381</v>
       </c>
       <c r="F172" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G172" s="15"/>
     </row>
@@ -6647,7 +6664,7 @@
         <v>382</v>
       </c>
       <c r="F173" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G173" s="15"/>
     </row>
@@ -6668,7 +6685,7 @@
         <v>384</v>
       </c>
       <c r="F174" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G174" s="20"/>
     </row>
@@ -6689,7 +6706,7 @@
         <v>385</v>
       </c>
       <c r="F175" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G175" s="15"/>
     </row>
@@ -6710,7 +6727,7 @@
         <v>386</v>
       </c>
       <c r="F176" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G176" s="15"/>
     </row>
@@ -6731,7 +6748,7 @@
         <v>387</v>
       </c>
       <c r="F177" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G177" s="15"/>
     </row>
@@ -6752,7 +6769,7 @@
         <v>388</v>
       </c>
       <c r="F178" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G178" s="15"/>
     </row>
@@ -6773,7 +6790,7 @@
         <v>389</v>
       </c>
       <c r="F179" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G179" s="15"/>
     </row>
@@ -6794,7 +6811,7 @@
         <v>390</v>
       </c>
       <c r="F180" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G180" s="15"/>
     </row>
@@ -6815,7 +6832,7 @@
         <v>391</v>
       </c>
       <c r="F181" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G181" s="15"/>
     </row>
@@ -6830,13 +6847,13 @@
         <v>383</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E182" s="21" t="s">
         <v>392</v>
       </c>
       <c r="F182" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G182" s="15"/>
     </row>
@@ -6851,13 +6868,13 @@
         <v>383</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E183" s="21" t="s">
         <v>393</v>
       </c>
       <c r="F183" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G183" s="15"/>
     </row>
@@ -6878,7 +6895,7 @@
         <v>394</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G184" s="15"/>
     </row>
@@ -6899,7 +6916,7 @@
         <v>396</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G185" s="15"/>
     </row>
@@ -6920,7 +6937,7 @@
         <v>397</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G186" s="15"/>
     </row>
@@ -6941,7 +6958,7 @@
         <v>400</v>
       </c>
       <c r="F187" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G187" s="20"/>
     </row>
@@ -6962,7 +6979,7 @@
         <v>401</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G188" s="15"/>
     </row>
@@ -6983,7 +7000,7 @@
         <v>402</v>
       </c>
       <c r="F189" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G189" s="15"/>
     </row>
@@ -7004,7 +7021,7 @@
         <v>403</v>
       </c>
       <c r="F190" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G190" s="15"/>
     </row>
@@ -7025,7 +7042,7 @@
         <v>404</v>
       </c>
       <c r="F191" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G191" s="15"/>
     </row>
@@ -7046,7 +7063,7 @@
         <v>405</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G192" s="15"/>
     </row>
@@ -7067,7 +7084,7 @@
         <v>408</v>
       </c>
       <c r="F193" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G193" s="20"/>
     </row>
@@ -7088,7 +7105,7 @@
         <v>409</v>
       </c>
       <c r="F194" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G194" s="15"/>
     </row>
@@ -7109,7 +7126,7 @@
         <v>410</v>
       </c>
       <c r="F195" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G195" s="15"/>
     </row>
@@ -7130,7 +7147,7 @@
         <v>411</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G196" s="15"/>
     </row>
@@ -7151,7 +7168,7 @@
         <v>412</v>
       </c>
       <c r="F197" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G197" s="15"/>
     </row>
@@ -7172,7 +7189,7 @@
         <v>413</v>
       </c>
       <c r="F198" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G198" s="15"/>
     </row>
@@ -7193,7 +7210,7 @@
         <v>416</v>
       </c>
       <c r="F199" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G199" s="20"/>
     </row>
@@ -7214,7 +7231,7 @@
         <v>419</v>
       </c>
       <c r="F200" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G200" s="20"/>
     </row>
@@ -7235,7 +7252,7 @@
         <v>420</v>
       </c>
       <c r="F201" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G201" s="15"/>
     </row>
@@ -7256,7 +7273,7 @@
         <v>421</v>
       </c>
       <c r="F202" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G202" s="15"/>
     </row>
@@ -7277,7 +7294,7 @@
         <v>422</v>
       </c>
       <c r="F203" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G203" s="15"/>
     </row>
@@ -7298,7 +7315,7 @@
         <v>423</v>
       </c>
       <c r="F204" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G204" s="15"/>
     </row>
@@ -7319,7 +7336,7 @@
         <v>424</v>
       </c>
       <c r="F205" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G205" s="15"/>
     </row>
@@ -7340,7 +7357,7 @@
         <v>425</v>
       </c>
       <c r="F206" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G206" s="15"/>
     </row>
@@ -7361,7 +7378,7 @@
         <v>426</v>
       </c>
       <c r="F207" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G207" s="15"/>
     </row>
@@ -7376,13 +7393,13 @@
         <v>418</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E208" s="21" t="s">
         <v>427</v>
       </c>
       <c r="F208" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G208" s="15"/>
     </row>
@@ -7403,7 +7420,7 @@
         <v>430</v>
       </c>
       <c r="F209" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G209" s="20"/>
     </row>
@@ -7424,7 +7441,7 @@
         <v>431</v>
       </c>
       <c r="F210" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G210" s="15"/>
     </row>
@@ -7466,7 +7483,7 @@
         <v>433</v>
       </c>
       <c r="F212" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G212" s="15"/>
     </row>
@@ -7487,7 +7504,7 @@
         <v>434</v>
       </c>
       <c r="F213" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G213" s="15"/>
     </row>
@@ -7508,7 +7525,7 @@
         <v>437</v>
       </c>
       <c r="F214" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G214" s="20"/>
     </row>
@@ -7529,7 +7546,7 @@
         <v>440</v>
       </c>
       <c r="F215" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G215" s="20"/>
     </row>
@@ -8344,4 +8361,158 @@
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="27" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/excel_source/일정표.xlsx
+++ b/excel_source/일정표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="박광현" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="0617" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="0618" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="0619" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="0620" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="483">
   <si>
     <t xml:space="preserve">분류</t>
   </si>
@@ -279,70 +280,70 @@
     <t xml:space="preserve">키오스크 화면은 장바구니 모션 모달을 구현한다</t>
   </si>
   <si>
+    <t xml:space="preserve">`-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">키오스크 화면은 추천 메뉴 모달을 구현한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">키오스크 화면은 결제 방법 선택 모달을 구현한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">키오스크 화면은 결제 안내 화면을 구현한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">키오스크 화면은 코드 입력 화면을 구현한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">키오스크 화면은 메인 프레임의 내용이 길어질 경우를 대비하여 필요시 스크롤바를 구현한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`-016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">키오스크 화면은 주문 종료 화면을 구현한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스크롤 바는 radius 가 높아 둥글며 눈에 띄지 않게 구현한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`-018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI 버튼들은 눌렸을 때(pressed) 이전보다 어두운 컬러로 바뀌어야한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`-019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">캐러샐들도 눌렸을 때 배경이 어두워져야한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내부 이미지 크기가 더 커지는 걸로 대체함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스크롤바를 구현할 경우 Swipe down으로도 탐색할 수 있다</t>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">키오스크 화면은 추천 메뉴 모달을 구현한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">키오스크 화면은 결제 방법 선택 모달을 구현한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">키오스크 화면은 결제 안내 화면을 구현한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">키오스크 화면은 코드 입력 화면을 구현한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">키오스크 화면은 메인 프레임의 내용이 길어질 경우를 대비하여 필요시 스크롤바를 구현한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">키오스크 화면은 주문 종료 화면을 구현한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스크롤 바는 radius 가 높아 둥글며 눈에 띄지 않게 구현한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI 버튼들은 눌렸을 때(pressed) 이전보다 어두운 컬러로 바뀌어야한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">캐러샐들도 눌렸을 때 배경이 어두워져야한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내부 이미지 크기가 더 커지는 걸로 대체함</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`-020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스크롤바를 구현할 경우 Swipe down으로도 탐색할 수 있다</t>
   </si>
   <si>
     <t xml:space="preserve">`-021</t>
@@ -1519,6 +1520,46 @@
   </si>
   <si>
     <t xml:space="preserve">프로젝트가 연장되었다.  포기하지 않고 계속 작업하는 것이 목표이다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 아침메뉴는 라지 세트가 안나오고 바로 사이드 선택하게
+2. carusel, confirm화면, count화면 가격에 쉼표 포매팅
+3. 개수별로 가격, 칼로리 증가
+4. QR 코드 스캐너
+5. confirm 또는 select 화면에서 취소시 다시 한번 확인
+6. 푸딩 해피밀 오더에서만, 생수는 단품 구매 안보이도록
+7. 추천메뉴, 맥카페커피 사이즈 늘리기
+8. 상품 sorting
+9. confrim 화면에서 추가가격, 추가 칼로리 반영
+10. 영양 정보 표시 화면
+11. confirm화면 버튼에 기능 추가(basket 변경+가격 refresh)
+12. 각 QR section과 모바일 상품권 클릭 시 QR코드화면으로 연결
+13. Language 선택시 언어 변경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 아침메뉴는 라지 세트가 안나오고 바로 사이드 선택하게 (완료)
+2. carusel, confirm화면, count화면 가격에 쉼표 포매팅 (완료)
+3. 개수별로 가격, 칼로리 증가 (완료)
+4. QR 코드 Query board (진행중)
+5. confirm 또는 select 화면에서 취소시 다시 한번 확인 (완료)
+6. 푸딩 해피밀 오더에서만, 생수는 단품 구매 안보이도록 (완료)
+7. 추천메뉴, 맥카페커피 사이즈 늘리기 (완료)
+8. 상품 sorting (완료)
+9. confrim 화면에서 추가가격, 추가 칼로리 반영 (완료)
+10. 영양 정보 표시 화면 (아직 못함)
+11. confirm화면 버튼에 기능 추가 (완료)
+12. 각 QR section과 모바일 상품권 클릭 시 QR코드화면으로 연결
+ (아직 못함)
+13. Language 선택시 언어 변경  (아직 못함)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">없음. 하나씩 진행중임</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구현 예정인 남은 작업들 중에서는 현재 기술스택에 크게 영향 주는 요인 없음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내일이 제출일이다. 마무리를 잘 해보도록 한다.</t>
   </si>
 </sst>
 </file>
@@ -2563,9 +2604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5394600</xdr:colOff>
+      <xdr:colOff>5394240</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2579,7 +2620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8416440"/>
-          <a:ext cx="13490280" cy="35431920"/>
+          <a:ext cx="13489920" cy="35431560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2600,9 +2641,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3554280</xdr:colOff>
+      <xdr:colOff>3553920</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2616,7 +2657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="280800" y="4139280"/>
-          <a:ext cx="11369160" cy="4139640"/>
+          <a:ext cx="11368800" cy="4139280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2638,7 +2679,7 @@
   </sheetPr>
   <dimension ref="B4:I136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2825,6 +2866,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="27" t="n">
+        <v>45097</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" customFormat="false" ht="230.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" customFormat="false" ht="243.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2832,7 +3027,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3020,8 +3215,8 @@
   </sheetPr>
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I212" activeCellId="0" sqref="I212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3042,7 +3237,7 @@
       </c>
       <c r="D1" s="1" t="n">
         <f aca="false">COUNTIF(F4:F217, "Y")</f>
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="G1" s="15"/>
     </row>
@@ -3059,7 +3254,7 @@
       </c>
       <c r="D2" s="17" t="n">
         <f aca="false">(COUNTIF(F4:F217, "Y")/B2)</f>
-        <v>0.345794392523364</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -3298,7 +3493,7 @@
         <v>81</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G13" s="15"/>
     </row>
@@ -3313,13 +3508,13 @@
         <v>60</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>84</v>
-      </c>
       <c r="F14" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G14" s="15"/>
     </row>
@@ -3334,10 +3529,10 @@
         <v>60</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>63</v>
@@ -3355,10 +3550,10 @@
         <v>60</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>88</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>63</v>
@@ -3376,13 +3571,13 @@
         <v>60</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="F17" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G17" s="15"/>
     </row>
@@ -3397,13 +3592,13 @@
         <v>60</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>92</v>
-      </c>
       <c r="F18" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G18" s="15"/>
     </row>
@@ -3418,10 +3613,10 @@
         <v>60</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>94</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>63</v>
@@ -3439,10 +3634,10 @@
         <v>60</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>63</v>
@@ -3460,10 +3655,10 @@
         <v>60</v>
       </c>
       <c r="D21" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>63</v>
@@ -3481,17 +3676,17 @@
         <v>60</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G22" s="15"/>
       <c r="I22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,13 +3700,13 @@
         <v>60</v>
       </c>
       <c r="D23" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>103</v>
-      </c>
       <c r="F23" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G23" s="15"/>
     </row>
@@ -3574,7 +3769,7 @@
         <v>109</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G26" s="15"/>
     </row>
@@ -3595,7 +3790,7 @@
         <v>111</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G27" s="15"/>
     </row>
@@ -3616,7 +3811,7 @@
         <v>113</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G28" s="15"/>
     </row>
@@ -3637,7 +3832,7 @@
         <v>115</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G29" s="15"/>
     </row>
@@ -3658,7 +3853,7 @@
         <v>117</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G30" s="15"/>
     </row>
@@ -3679,7 +3874,7 @@
         <v>119</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G31" s="15"/>
     </row>
@@ -3700,7 +3895,7 @@
         <v>121</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G32" s="15"/>
     </row>
@@ -3721,7 +3916,7 @@
         <v>123</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G33" s="15"/>
     </row>
@@ -3787,7 +3982,7 @@
         <v>131</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G36" s="15"/>
     </row>
@@ -3829,7 +4024,7 @@
         <v>136</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G38" s="15"/>
     </row>
@@ -3850,7 +4045,7 @@
         <v>138</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G39" s="15"/>
     </row>
@@ -4123,7 +4318,7 @@
         <v>165</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G52" s="15"/>
     </row>
@@ -4165,7 +4360,7 @@
         <v>169</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G54" s="15"/>
     </row>
@@ -4375,7 +4570,7 @@
         <v>189</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G64" s="15"/>
     </row>
@@ -4459,7 +4654,7 @@
         <v>198</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G68" s="15"/>
     </row>
@@ -4585,7 +4780,7 @@
         <v>210</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G74" s="15"/>
     </row>
@@ -4606,7 +4801,7 @@
         <v>212</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G75" s="15"/>
     </row>
@@ -4627,7 +4822,7 @@
         <v>214</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G76" s="15"/>
     </row>
@@ -4648,7 +4843,7 @@
         <v>216</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G77" s="15"/>
     </row>
@@ -4690,7 +4885,7 @@
         <v>221</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G79" s="15"/>
     </row>
@@ -4711,7 +4906,7 @@
         <v>223</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G80" s="15"/>
     </row>
@@ -4732,7 +4927,7 @@
         <v>225</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G81" s="15"/>
     </row>
@@ -4753,7 +4948,7 @@
         <v>227</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G82" s="15"/>
     </row>
@@ -4774,7 +4969,7 @@
         <v>230</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G83" s="15"/>
     </row>
@@ -4795,7 +4990,7 @@
         <v>232</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G84" s="15"/>
     </row>
@@ -4816,7 +5011,7 @@
         <v>234</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G85" s="15"/>
     </row>
@@ -4837,7 +5032,7 @@
         <v>236</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G86" s="15"/>
     </row>
@@ -4858,7 +5053,7 @@
         <v>238</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G87" s="15"/>
     </row>
@@ -4942,7 +5137,7 @@
         <v>246</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G91" s="15"/>
     </row>
@@ -4963,7 +5158,7 @@
         <v>248</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G92" s="15"/>
     </row>
@@ -4984,7 +5179,7 @@
         <v>251</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G93" s="15"/>
     </row>
@@ -5005,7 +5200,7 @@
         <v>253</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G94" s="15"/>
     </row>
@@ -5026,7 +5221,7 @@
         <v>256</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G95" s="15"/>
     </row>
@@ -5047,7 +5242,7 @@
         <v>258</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G96" s="15"/>
     </row>
@@ -5068,7 +5263,7 @@
         <v>260</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G97" s="15"/>
     </row>
@@ -5089,7 +5284,7 @@
         <v>262</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G98" s="15"/>
     </row>
@@ -5110,7 +5305,7 @@
         <v>264</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G99" s="15"/>
     </row>
@@ -5131,7 +5326,7 @@
         <v>266</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G100" s="15"/>
     </row>
@@ -5215,7 +5410,7 @@
         <v>276</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G104" s="15"/>
     </row>
@@ -5236,7 +5431,7 @@
         <v>278</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G105" s="15"/>
     </row>
@@ -5257,7 +5452,7 @@
         <v>280</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G106" s="15"/>
     </row>
@@ -5278,7 +5473,7 @@
         <v>282</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G107" s="15"/>
     </row>
@@ -5299,7 +5494,7 @@
         <v>284</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G108" s="15"/>
     </row>
@@ -5320,7 +5515,7 @@
         <v>286</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G109" s="15"/>
     </row>
@@ -5341,7 +5536,7 @@
         <v>288</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G110" s="15"/>
     </row>
@@ -5362,7 +5557,7 @@
         <v>290</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G111" s="15"/>
     </row>
@@ -5383,7 +5578,7 @@
         <v>292</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G112" s="15"/>
     </row>
@@ -5404,7 +5599,7 @@
         <v>294</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G113" s="15"/>
     </row>
@@ -5425,7 +5620,7 @@
         <v>297</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G114" s="15"/>
     </row>
@@ -5446,7 +5641,7 @@
         <v>299</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G115" s="15"/>
     </row>
@@ -5467,7 +5662,7 @@
         <v>301</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G116" s="15"/>
     </row>
@@ -5488,7 +5683,7 @@
         <v>303</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G117" s="15"/>
     </row>
@@ -5509,7 +5704,7 @@
         <v>305</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G118" s="15"/>
     </row>
@@ -5530,7 +5725,7 @@
         <v>307</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G119" s="15"/>
     </row>
@@ -5551,7 +5746,7 @@
         <v>309</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G120" s="15"/>
     </row>
@@ -5572,7 +5767,7 @@
         <v>311</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G121" s="15"/>
     </row>
@@ -5593,7 +5788,7 @@
         <v>313</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G122" s="15"/>
     </row>
@@ -5614,7 +5809,7 @@
         <v>316</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G123" s="15"/>
     </row>
@@ -5635,7 +5830,7 @@
         <v>318</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G124" s="15"/>
     </row>
@@ -5782,7 +5977,7 @@
         <v>334</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G131" s="15"/>
     </row>
@@ -5803,7 +5998,7 @@
         <v>336</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G132" s="15"/>
     </row>
@@ -5824,7 +6019,7 @@
         <v>338</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G133" s="15"/>
     </row>
@@ -5845,7 +6040,7 @@
         <v>342</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G134" s="20"/>
     </row>
@@ -5866,7 +6061,7 @@
         <v>343</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G135" s="15"/>
     </row>
@@ -5887,7 +6082,7 @@
         <v>344</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G136" s="15"/>
     </row>
@@ -5908,7 +6103,7 @@
         <v>345</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G137" s="15"/>
     </row>
@@ -5929,7 +6124,7 @@
         <v>346</v>
       </c>
       <c r="F138" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G138" s="15"/>
     </row>
@@ -5950,7 +6145,7 @@
         <v>347</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G139" s="15"/>
     </row>
@@ -5971,7 +6166,7 @@
         <v>348</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G140" s="15"/>
     </row>
@@ -5992,7 +6187,7 @@
         <v>349</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G141" s="15"/>
     </row>
@@ -6013,7 +6208,7 @@
         <v>350</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G142" s="15"/>
     </row>
@@ -6034,7 +6229,7 @@
         <v>351</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G143" s="15"/>
     </row>
@@ -6049,13 +6244,13 @@
         <v>341</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E144" s="21" t="s">
         <v>352</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G144" s="15"/>
     </row>
@@ -6070,13 +6265,13 @@
         <v>341</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E145" s="21" t="s">
         <v>353</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G145" s="15"/>
     </row>
@@ -6091,13 +6286,13 @@
         <v>341</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E146" s="21" t="s">
         <v>354</v>
       </c>
       <c r="F146" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G146" s="15"/>
     </row>
@@ -6112,13 +6307,13 @@
         <v>341</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E147" s="21" t="s">
         <v>355</v>
       </c>
       <c r="F147" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G147" s="15"/>
     </row>
@@ -6133,13 +6328,13 @@
         <v>341</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E148" s="21" t="s">
         <v>356</v>
       </c>
       <c r="F148" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G148" s="15"/>
     </row>
@@ -6154,13 +6349,13 @@
         <v>341</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E149" s="21" t="s">
         <v>357</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G149" s="15"/>
     </row>
@@ -6175,13 +6370,13 @@
         <v>341</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E150" s="21" t="s">
         <v>358</v>
       </c>
       <c r="F150" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G150" s="15"/>
     </row>
@@ -6196,13 +6391,13 @@
         <v>341</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E151" s="21" t="s">
         <v>359</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G151" s="15"/>
     </row>
@@ -6217,13 +6412,13 @@
         <v>341</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E152" s="21" t="s">
         <v>360</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G152" s="15"/>
     </row>
@@ -6238,13 +6433,13 @@
         <v>341</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E153" s="21" t="s">
         <v>361</v>
       </c>
       <c r="F153" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G153" s="15"/>
     </row>
@@ -6265,7 +6460,7 @@
         <v>362</v>
       </c>
       <c r="F154" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G154" s="15"/>
     </row>
@@ -6286,7 +6481,7 @@
         <v>363</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G155" s="15"/>
     </row>
@@ -6307,7 +6502,7 @@
         <v>364</v>
       </c>
       <c r="F156" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G156" s="15"/>
     </row>
@@ -6328,7 +6523,7 @@
         <v>365</v>
       </c>
       <c r="F157" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G157" s="15"/>
     </row>
@@ -6349,7 +6544,7 @@
         <v>366</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G158" s="15"/>
     </row>
@@ -6370,7 +6565,7 @@
         <v>367</v>
       </c>
       <c r="F159" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G159" s="15"/>
     </row>
@@ -6391,7 +6586,7 @@
         <v>368</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G160" s="15"/>
     </row>
@@ -6412,7 +6607,7 @@
         <v>369</v>
       </c>
       <c r="F161" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G161" s="15"/>
     </row>
@@ -6433,7 +6628,7 @@
         <v>370</v>
       </c>
       <c r="F162" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G162" s="15"/>
     </row>
@@ -6454,7 +6649,7 @@
         <v>371</v>
       </c>
       <c r="F163" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G163" s="15"/>
     </row>
@@ -6475,7 +6670,7 @@
         <v>373</v>
       </c>
       <c r="F164" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G164" s="15"/>
     </row>
@@ -6496,7 +6691,7 @@
         <v>374</v>
       </c>
       <c r="F165" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G165" s="15"/>
     </row>
@@ -6517,7 +6712,7 @@
         <v>375</v>
       </c>
       <c r="F166" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G166" s="15"/>
     </row>
@@ -6538,7 +6733,7 @@
         <v>376</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G167" s="15"/>
     </row>
@@ -6559,7 +6754,7 @@
         <v>377</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G168" s="15"/>
     </row>
@@ -6580,7 +6775,7 @@
         <v>378</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G169" s="15"/>
     </row>
@@ -6601,7 +6796,7 @@
         <v>379</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G170" s="15"/>
     </row>
@@ -6622,7 +6817,7 @@
         <v>380</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G171" s="15"/>
     </row>
@@ -6727,7 +6922,7 @@
         <v>386</v>
       </c>
       <c r="F176" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G176" s="15"/>
     </row>
@@ -6748,7 +6943,7 @@
         <v>387</v>
       </c>
       <c r="F177" s="22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G177" s="15"/>
     </row>
@@ -6832,7 +7027,7 @@
         <v>391</v>
       </c>
       <c r="F181" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G181" s="15"/>
     </row>
@@ -6853,7 +7048,7 @@
         <v>392</v>
       </c>
       <c r="F182" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G182" s="15"/>
     </row>
@@ -6874,7 +7069,7 @@
         <v>393</v>
       </c>
       <c r="F183" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G183" s="15"/>
     </row>
@@ -6889,13 +7084,13 @@
         <v>383</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E184" s="21" t="s">
         <v>394</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G184" s="15"/>
     </row>
@@ -6910,13 +7105,13 @@
         <v>383</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E185" s="21" t="s">
         <v>396</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G185" s="15"/>
     </row>
@@ -6931,13 +7126,13 @@
         <v>383</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E186" s="21" t="s">
         <v>397</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G186" s="15"/>
     </row>
@@ -6958,7 +7153,7 @@
         <v>400</v>
       </c>
       <c r="F187" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G187" s="20"/>
     </row>
@@ -6979,7 +7174,7 @@
         <v>401</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G188" s="15"/>
     </row>
@@ -7000,7 +7195,7 @@
         <v>402</v>
       </c>
       <c r="F189" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G189" s="15"/>
     </row>
@@ -7021,7 +7216,7 @@
         <v>403</v>
       </c>
       <c r="F190" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G190" s="15"/>
     </row>
@@ -7042,7 +7237,7 @@
         <v>404</v>
       </c>
       <c r="F191" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G191" s="15"/>
     </row>
@@ -7063,7 +7258,7 @@
         <v>405</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G192" s="15"/>
     </row>
@@ -7084,7 +7279,7 @@
         <v>408</v>
       </c>
       <c r="F193" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G193" s="20"/>
     </row>
@@ -7105,7 +7300,7 @@
         <v>409</v>
       </c>
       <c r="F194" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G194" s="15"/>
     </row>
@@ -7126,7 +7321,7 @@
         <v>410</v>
       </c>
       <c r="F195" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G195" s="15"/>
     </row>
@@ -7147,7 +7342,7 @@
         <v>411</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G196" s="15"/>
     </row>
@@ -7168,7 +7363,7 @@
         <v>412</v>
       </c>
       <c r="F197" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G197" s="15"/>
     </row>
@@ -7189,7 +7384,7 @@
         <v>413</v>
       </c>
       <c r="F198" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G198" s="15"/>
     </row>
@@ -7210,7 +7405,7 @@
         <v>416</v>
       </c>
       <c r="F199" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G199" s="20"/>
     </row>
@@ -7231,7 +7426,7 @@
         <v>419</v>
       </c>
       <c r="F200" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G200" s="20"/>
     </row>
@@ -7252,7 +7447,7 @@
         <v>420</v>
       </c>
       <c r="F201" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G201" s="15"/>
     </row>
@@ -7294,7 +7489,7 @@
         <v>422</v>
       </c>
       <c r="F203" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G203" s="15"/>
     </row>
@@ -7315,7 +7510,7 @@
         <v>423</v>
       </c>
       <c r="F204" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G204" s="15"/>
     </row>
@@ -7336,7 +7531,7 @@
         <v>424</v>
       </c>
       <c r="F205" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G205" s="15"/>
     </row>
@@ -7357,7 +7552,7 @@
         <v>425</v>
       </c>
       <c r="F206" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G206" s="15"/>
     </row>
@@ -7378,7 +7573,7 @@
         <v>426</v>
       </c>
       <c r="F207" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G207" s="15"/>
     </row>
@@ -7399,7 +7594,7 @@
         <v>427</v>
       </c>
       <c r="F208" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G208" s="15"/>
     </row>
@@ -7420,7 +7615,7 @@
         <v>430</v>
       </c>
       <c r="F209" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G209" s="20"/>
     </row>
@@ -7441,7 +7636,7 @@
         <v>431</v>
       </c>
       <c r="F210" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G210" s="15"/>
     </row>
@@ -7483,7 +7678,7 @@
         <v>433</v>
       </c>
       <c r="F212" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G212" s="15"/>
     </row>
@@ -7504,7 +7699,7 @@
         <v>434</v>
       </c>
       <c r="F213" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G213" s="15"/>
     </row>
@@ -7525,7 +7720,7 @@
         <v>437</v>
       </c>
       <c r="F214" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G214" s="20"/>
     </row>
@@ -7546,7 +7741,7 @@
         <v>440</v>
       </c>
       <c r="F215" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G215" s="20"/>
     </row>
@@ -7610,7 +7805,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7764,7 +7959,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -7918,7 +8113,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -8072,7 +8267,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8216,7 +8411,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -8370,7 +8565,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/excel_source/일정표.xlsx
+++ b/excel_source/일정표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="박광현" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="0618" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="0619" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="0620" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="시트11" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="753">
   <si>
     <t xml:space="preserve">분류</t>
   </si>
@@ -343,7 +344,10 @@
     <t xml:space="preserve">스크롤바를 구현할 경우 Swipe down으로도 탐색할 수 있다</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">애니메이션 구현하지 않음</t>
   </si>
   <si>
     <t xml:space="preserve">`-021</t>
@@ -394,6 +398,9 @@
     <t xml:space="preserve">네트워크가 연결되지 않은 상태에서는 주문을 받지 않는다</t>
   </si>
   <si>
+    <t xml:space="preserve">네트워크 미구현 예정으로 테스트 불가</t>
+  </si>
+  <si>
     <t xml:space="preserve">`-029</t>
   </si>
   <si>
@@ -865,6 +872,9 @@
     <t xml:space="preserve">결제 제한 시간은 1분이다</t>
   </si>
   <si>
+    <t xml:space="preserve">결제 모듈은 구현 불가</t>
+  </si>
+  <si>
     <t xml:space="preserve">`-102</t>
   </si>
   <si>
@@ -946,6 +956,9 @@
     <t xml:space="preserve">QR코드를 영대문자 1개 + 숫자 6자리로 변환할 수 있어야한다</t>
   </si>
   <si>
+    <t xml:space="preserve">Qr-code → url주소 → qr코드 변환 로직 필요</t>
+  </si>
+  <si>
     <t xml:space="preserve">`-115</t>
   </si>
   <si>
@@ -1039,6 +1052,9 @@
     <t xml:space="preserve">시스템 통계 모듈은 현재 주문 현황을 표시한다</t>
   </si>
   <si>
+    <t xml:space="preserve">시스템 통계 부분은 키오스크 범위 밖</t>
+  </si>
+  <si>
     <t xml:space="preserve">`-129</t>
   </si>
   <si>
@@ -1063,6 +1079,9 @@
     <t xml:space="preserve">최소 27~32인치 디스플레이, Full HD, 60Hz를 구현한다</t>
   </si>
   <si>
+    <t xml:space="preserve">하드웨어 구현 불가</t>
+  </si>
+  <si>
     <t xml:space="preserve">터치스크린이 가능하다</t>
   </si>
   <si>
@@ -1195,6 +1214,9 @@
     <t xml:space="preserve">키오스크의 폰트는 자사의 SpeeDee 한글 서체를 사용한다</t>
   </si>
   <si>
+    <t xml:space="preserve">유료 서체로 구매 필요</t>
+  </si>
+  <si>
     <t xml:space="preserve">당사의 아이덴티티 컬러는 노랑(#ffbc0d), 빨강(#ffbc0d), 초록(#ffbc0d)을 사용한다</t>
   </si>
   <si>
@@ -1225,6 +1247,9 @@
     <t xml:space="preserve">키오스크에 발생한 주문들은 당사 주문 시스템으로 정보가 송신되어야한다</t>
   </si>
   <si>
+    <t xml:space="preserve">네트워크 구현은 범위 밖</t>
+  </si>
+  <si>
     <t xml:space="preserve">키오스크에서 총 발생할 예상 주문건수는 1500건 정도이다</t>
   </si>
   <si>
@@ -1237,6 +1262,9 @@
     <t xml:space="preserve">데이터베이스 설계 계획서와 ERD를 제출하고 당사의 승인 받아야한다</t>
   </si>
   <si>
+    <t xml:space="preserve">작성은 했으나 승인 과정 없음</t>
+  </si>
+  <si>
     <t xml:space="preserve">주문 정보에 대해 주문이 발생한 매장, 주문 상태, 총 가격, 입력한 QR코드, 사용한 쿠폰 정보, 할인 가격 정보를 포함해야한다</t>
   </si>
   <si>
@@ -1252,6 +1280,9 @@
     <t xml:space="preserve">키오스크는 메뉴 정보 데이터를 1시간 주기 또는 외부 트리거로 메뉴 정보를 업데이트한다</t>
   </si>
   <si>
+    <t xml:space="preserve">네트워크 없음</t>
+  </si>
+  <si>
     <t xml:space="preserve">테스트 요구사항</t>
   </si>
   <si>
@@ -1261,6 +1292,9 @@
     <t xml:space="preserve">단위 테스트를 시행하고 결과보고서를 제출해야한다</t>
   </si>
   <si>
+    <t xml:space="preserve">결과보고서 없음</t>
+  </si>
+  <si>
     <t xml:space="preserve">모듈 테스트를 시행하고 결과보고서를 제출해야한다</t>
   </si>
   <si>
@@ -1285,6 +1319,9 @@
     <t xml:space="preserve">사용자가 클릭하면 0.5초 이내에 시스템이 반응해야한다. 그 이상 넘어갈 경우 로딩 모션을 추가해야한다</t>
   </si>
   <si>
+    <t xml:space="preserve">애니메이션 구현 안함</t>
+  </si>
+  <si>
     <t xml:space="preserve">품질</t>
   </si>
   <si>
@@ -1294,13 +1331,22 @@
     <t xml:space="preserve">키오스크는 24/7 동작하고 99% 이상의 동작 신뢰성을 보장한다</t>
   </si>
   <si>
+    <t xml:space="preserve">테스트 불가</t>
+  </si>
+  <si>
     <t xml:space="preserve">예기치 않은 시스템 오류로 프로그램을 재시작 할 경우, 당사 UI 통일된 부팅화면을 구현한다</t>
   </si>
   <si>
+    <t xml:space="preserve">로직은 감이 오지만, 제한 시간내 구현 어려움</t>
+  </si>
+  <si>
     <t xml:space="preserve">시스템 부팅은 3분 이내에 완료되어야한다</t>
   </si>
   <si>
     <t xml:space="preserve">키오스크는 프로그램 사용이 익숙하지 않은 크루도 껐다 킬 수 있을 정도로 동작이 간단해야한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구현 또는 테스트 불가</t>
   </si>
   <si>
     <t xml:space="preserve">카드리더기나 스캐너, 프린터의 작동이 정상적이지 않을 경우, 주문을 받지 않는다</t>
@@ -1560,6 +1606,771 @@
   </si>
   <si>
     <t xml:space="preserve">내일이 제출일이다. 마무리를 잘 해보도록 한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carusel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CaruselOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KioskController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KioskDBConnector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrderMenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QRcodeInsertModal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModalFinish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModalNutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListConfirmItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModalOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">__init__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">__new__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tb_menu_col_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">__repr__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_menu_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_on_DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_btn_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_refractory_period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_initialize_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_reset_option_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tb_menu_detail_col_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_eat_way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_enable_config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_clicked_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_conn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_calories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply_qr_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_btn_char_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_enable_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_reset_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_btn_triggered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_initialize_widget_select_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tb_order_col_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assert_same_option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_initialize_modal_window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">widget_click_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match_qr_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_conn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_menu_disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_opened_modal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grand_parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_stepper_add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_banner_groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">widget_release_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert_menu_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_keyboard_action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_order_limit_timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_delete_row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_hide_banners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_qrcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_menu_price_and_calories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete_row_menu_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_set_img_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_one_from_db_by_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle_char_btns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_reset_gui_and_attributes_before_get_orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_row_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_showing_banners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refresh_price_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert_menu_detail_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_combo_img_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_get_banners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pixmap_dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_refresh_title_name_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calories_handler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_menu_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_basic_img_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_get_yellow_underlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_menu_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_config_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_basket_as_zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_ordinary_price_by_menu_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn_char_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_turn_off_banner_yellow_underline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_carusel_into_option_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_menu_name_by_menu_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allergy_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_turn_on_banner_yellow_underline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_side_and_beverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option_modal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_order_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic_img_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_pixmap_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make_nutrition_info_modal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_beverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_serving_lunch_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caffeine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_menu_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_menu_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_apply_quantity_and_add_item_on_basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_additional_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commit_db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_basket_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_price_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classification_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_refresh_cart_count_and_total_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decrease_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combo_img_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qr_code_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_refresh_confirm_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_refresh_combination_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combo_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_grouping_carusel_widget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_carusel_list_sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_go_to_standby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_total_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_initialize_select_menu_page_carusel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_go_to_select_menu_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_menu_carusel_on_selected_origin_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eat_way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">happy_snack_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_menu_carusel_on_select_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_refresh_label_on_count_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_id_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">happy_snack_size_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_showing_selected_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left_widget_click_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has_combo_service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_adjustment_style_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left_widget_release_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has_size_distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_init_timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right_widget_click_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_asked_additional_beverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_selected_eat_way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right_widget_release_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_asked_additional_side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_go_to_extra_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_go_to_set_option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_asked_happy_meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_go_to_standby_main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_go_to_single_option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_asked_set_service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_go_select_eat_way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_option_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_go_to_confirm_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banner_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_happy_snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_go_to_qr_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_lunch_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_qr_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_mcmorning_service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_go_to_ask_pay_way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nutrition_modal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_new_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_pay_way_1_click_and_released_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_ordinary_service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_pay_way_2_click_and_released_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_update_order_on_db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large_size_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_showing_finish_modal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ask_recommend_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_no_select_recommend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_banner_click_event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_change_ad_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_set_standby_initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_get_pixmap_ad_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lipid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_stepper_value_btn_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunch_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_stepper_value_btn_minus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete_basket_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium_size_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_pixmap_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natrium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordinary_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_refractory_period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordinary_size_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_img_dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_img_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now_basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_order_can_it_order_beverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now_option_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_order_can_it_order_side_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opened_modal_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_time_limit_timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmovie_card_insert_gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small_size_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qr_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refractory_timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">widget_carusel_menu_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow_under_lines</t>
   </si>
 </sst>
 </file>
@@ -2604,9 +3415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5394240</xdr:colOff>
+      <xdr:colOff>5393880</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2620,7 +3431,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8416440"/>
-          <a:ext cx="13489920" cy="35431560"/>
+          <a:ext cx="13489560" cy="35431200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2641,9 +3452,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3553920</xdr:colOff>
+      <xdr:colOff>3553560</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2657,7 +3468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="280800" y="4139280"/>
-          <a:ext cx="11368800" cy="4139280"/>
+          <a:ext cx="11368440" cy="4138920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2679,7 +3490,7 @@
   </sheetPr>
   <dimension ref="B4:I136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2873,15 +3684,15 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2889,7 +3700,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="24" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H1" s="24"/>
     </row>
@@ -2909,7 +3720,7 @@
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="27" t="n">
@@ -2923,11 +3734,11 @@
     </row>
     <row r="4" customFormat="false" ht="230.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="28" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -2937,11 +3748,11 @@
     </row>
     <row r="5" customFormat="false" ht="243.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="28" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -2951,11 +3762,11 @@
     </row>
     <row r="6" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="28" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -2965,11 +3776,11 @@
     </row>
     <row r="7" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="28" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -2979,11 +3790,11 @@
     </row>
     <row r="8" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="28" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -3020,6 +3831,1104 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="E2:S65"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="27.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="40.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="24.06"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J64" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N65" s="0" t="s">
+        <v>752</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -3027,7 +4936,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3215,8 +5124,8 @@
   </sheetPr>
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I212" activeCellId="0" sqref="I212"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B154" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E174" activeCellId="0" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3225,7 +5134,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.77"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="120.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="42.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="37.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="11.64"/>
   </cols>
@@ -3236,8 +5146,8 @@
         <v>47</v>
       </c>
       <c r="D1" s="1" t="n">
-        <f aca="false">COUNTIF(F4:F217, "Y")</f>
-        <v>104</v>
+        <f aca="false">COUNTIF(F4:F217, "-")+COUNTIF(F4:F217, "Y")</f>
+        <v>214</v>
       </c>
       <c r="G1" s="15"/>
     </row>
@@ -3253,8 +5163,8 @@
         <v>49</v>
       </c>
       <c r="D2" s="17" t="n">
-        <f aca="false">(COUNTIF(F4:F217, "Y")/B2)</f>
-        <v>0.485981308411215</v>
+        <f aca="false">((COUNTIF(F4:F217,"Y")+COUNTIF(F4:F217,"-"))/COUNTA(F4:F217))</f>
+        <v>1</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -3708,7 +5618,12 @@
       <c r="F23" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
@@ -3721,10 +5636,10 @@
         <v>60</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>63</v>
@@ -3742,10 +5657,10 @@
         <v>60</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>63</v>
@@ -3763,13 +5678,13 @@
         <v>60</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G26" s="15"/>
     </row>
@@ -3784,13 +5699,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G27" s="15"/>
     </row>
@@ -3805,17 +5720,17 @@
         <v>60</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
         <v>58</v>
       </c>
@@ -3826,13 +5741,13 @@
         <v>60</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G29" s="15"/>
     </row>
@@ -3847,13 +5762,13 @@
         <v>60</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G30" s="15"/>
     </row>
@@ -3868,17 +5783,22 @@
         <v>60</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
         <v>58</v>
       </c>
@@ -3889,17 +5809,22 @@
         <v>60</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
         <v>58</v>
       </c>
@@ -3910,38 +5835,43 @@
         <v>60</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G34" s="15"/>
       <c r="I34" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,40 +5879,40 @@
         <v>58</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G36" s="15"/>
     </row>
@@ -3991,16 +5921,16 @@
         <v>58</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>63</v>
@@ -4012,40 +5942,40 @@
         <v>58</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G39" s="15"/>
     </row>
@@ -4054,16 +5984,16 @@
         <v>58</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>63</v>
@@ -4075,16 +6005,16 @@
         <v>58</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>63</v>
@@ -4096,16 +6026,16 @@
         <v>58</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>63</v>
@@ -4117,16 +6047,16 @@
         <v>58</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>63</v>
@@ -4138,16 +6068,16 @@
         <v>58</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>63</v>
@@ -4159,16 +6089,16 @@
         <v>58</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>63</v>
@@ -4180,16 +6110,16 @@
         <v>58</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>63</v>
@@ -4201,16 +6131,16 @@
         <v>58</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>63</v>
@@ -4222,16 +6152,16 @@
         <v>58</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>63</v>
@@ -4243,16 +6173,16 @@
         <v>58</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>63</v>
@@ -4264,16 +6194,16 @@
         <v>58</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>63</v>
@@ -4285,82 +6215,87 @@
         <v>58</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="15"/>
+      <c r="G52" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G54" s="15"/>
     </row>
@@ -4369,16 +6304,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>63</v>
@@ -4390,16 +6325,16 @@
         <v>58</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>63</v>
@@ -4411,16 +6346,16 @@
         <v>58</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>63</v>
@@ -4432,16 +6367,16 @@
         <v>58</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>63</v>
@@ -4453,16 +6388,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F59" s="22" t="s">
         <v>63</v>
@@ -4474,16 +6409,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>63</v>
@@ -4495,16 +6430,16 @@
         <v>58</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>63</v>
@@ -4516,16 +6451,16 @@
         <v>58</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F62" s="22" t="s">
         <v>63</v>
@@ -4537,40 +6472,40 @@
         <v>58</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F63" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G64" s="15"/>
     </row>
@@ -4579,16 +6514,16 @@
         <v>58</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>63</v>
@@ -4600,16 +6535,16 @@
         <v>58</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F66" s="22" t="s">
         <v>63</v>
@@ -4621,16 +6556,16 @@
         <v>58</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F67" s="22" t="s">
         <v>63</v>
@@ -4642,16 +6577,16 @@
         <v>58</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F68" s="22" t="s">
         <v>63</v>
@@ -4663,16 +6598,16 @@
         <v>58</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F69" s="22" t="s">
         <v>63</v>
@@ -4684,16 +6619,16 @@
         <v>58</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F70" s="22" t="s">
         <v>63</v>
@@ -4705,16 +6640,16 @@
         <v>58</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F71" s="22" t="s">
         <v>63</v>
@@ -4726,16 +6661,16 @@
         <v>58</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>63</v>
@@ -4747,16 +6682,16 @@
         <v>58</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F73" s="22" t="s">
         <v>63</v>
@@ -4768,16 +6703,16 @@
         <v>58</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F74" s="22" t="s">
         <v>63</v>
@@ -4789,16 +6724,16 @@
         <v>58</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F75" s="22" t="s">
         <v>63</v>
@@ -4810,16 +6745,16 @@
         <v>58</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F76" s="22" t="s">
         <v>63</v>
@@ -4831,16 +6766,16 @@
         <v>58</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>63</v>
@@ -4852,16 +6787,16 @@
         <v>58</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>63</v>
@@ -4873,58 +6808,63 @@
         <v>58</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E79" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G79" s="15"/>
+    </row>
+    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="F79" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G79" s="15"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>219</v>
-      </c>
       <c r="C80" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F80" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G80" s="15"/>
+      <c r="G80" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>63</v>
@@ -4936,16 +6876,16 @@
         <v>58</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F82" s="22" t="s">
         <v>63</v>
@@ -4957,16 +6897,16 @@
         <v>58</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F83" s="22" t="s">
         <v>63</v>
@@ -4978,16 +6918,16 @@
         <v>58</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F84" s="22" t="s">
         <v>63</v>
@@ -4999,16 +6939,16 @@
         <v>58</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F85" s="22" t="s">
         <v>63</v>
@@ -5020,58 +6960,63 @@
         <v>58</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F86" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F87" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G87" s="15"/>
+      <c r="G87" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F88" s="22" t="s">
         <v>63</v>
@@ -5083,16 +7028,16 @@
         <v>58</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F89" s="22" t="s">
         <v>63</v>
@@ -5104,16 +7049,16 @@
         <v>58</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F90" s="22" t="s">
         <v>63</v>
@@ -5125,16 +7070,16 @@
         <v>58</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F91" s="22" t="s">
         <v>63</v>
@@ -5146,16 +7091,16 @@
         <v>58</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F92" s="22" t="s">
         <v>63</v>
@@ -5167,58 +7112,60 @@
         <v>58</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E93" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="F93" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G93" s="15"/>
-    </row>
-    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>249</v>
-      </c>
       <c r="C94" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F94" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G94" s="15"/>
+      <c r="G94" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F95" s="22" t="s">
         <v>63</v>
@@ -5230,16 +7177,16 @@
         <v>58</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F96" s="22" t="s">
         <v>63</v>
@@ -5251,16 +7198,16 @@
         <v>58</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F97" s="22" t="s">
         <v>63</v>
@@ -5272,16 +7219,16 @@
         <v>58</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F98" s="22" t="s">
         <v>63</v>
@@ -5293,16 +7240,16 @@
         <v>58</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F99" s="22" t="s">
         <v>63</v>
@@ -5314,16 +7261,16 @@
         <v>58</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F100" s="22" t="s">
         <v>63</v>
@@ -5335,16 +7282,16 @@
         <v>58</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C101" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F101" s="22" t="s">
         <v>63</v>
@@ -5356,16 +7303,16 @@
         <v>58</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F102" s="22" t="s">
         <v>63</v>
@@ -5377,436 +7324,504 @@
         <v>58</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F103" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F104" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G104" s="15"/>
-    </row>
-    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G104" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C105" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F105" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G105" s="15"/>
-    </row>
-    <row r="106" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G105" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C106" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F106" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G106" s="15"/>
-    </row>
-    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G106" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F107" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G107" s="15"/>
-    </row>
-    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G107" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F108" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G108" s="15"/>
-    </row>
-    <row r="109" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G108" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F109" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G109" s="15"/>
-    </row>
-    <row r="110" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G109" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F110" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G110" s="15"/>
-    </row>
-    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G110" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F111" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G111" s="15"/>
+      <c r="G111" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F112" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G112" s="15"/>
     </row>
-    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F113" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G113" s="15"/>
-    </row>
-    <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G113" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F114" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G114" s="15"/>
+      <c r="G114" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D115" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G115" s="15"/>
+    </row>
+    <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="E115" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="F115" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G115" s="15"/>
-    </row>
-    <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>295</v>
-      </c>
       <c r="C116" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F117" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G117" s="15"/>
-    </row>
-    <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G117" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F118" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G118" s="15"/>
-    </row>
-    <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G118" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F119" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G119" s="15"/>
-    </row>
-    <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G119" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F120" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G120" s="15"/>
-    </row>
-    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G120" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F121" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G121" s="15"/>
-    </row>
-    <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G121" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F122" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G122" s="15"/>
+      <c r="G122" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F123" s="22" t="s">
         <v>63</v>
@@ -5818,16 +7833,16 @@
         <v>58</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F124" s="22" t="s">
         <v>63</v>
@@ -5839,16 +7854,16 @@
         <v>58</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F125" s="22" t="s">
         <v>63</v>
@@ -5860,16 +7875,16 @@
         <v>58</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F126" s="22" t="s">
         <v>63</v>
@@ -5881,16 +7896,16 @@
         <v>58</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F127" s="22" t="s">
         <v>63</v>
@@ -5902,16 +7917,16 @@
         <v>58</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F128" s="22" t="s">
         <v>63</v>
@@ -5923,16 +7938,16 @@
         <v>58</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F129" s="22" t="s">
         <v>63</v>
@@ -5944,898 +7959,1103 @@
         <v>58</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F130" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G130" s="15"/>
     </row>
-    <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F131" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G131" s="15"/>
-    </row>
-    <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G131" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F132" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G132" s="15"/>
-    </row>
-    <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G132" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F133" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G133" s="15"/>
-    </row>
-    <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G133" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D134" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F134" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G134" s="20"/>
-    </row>
-    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G134" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D135" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F135" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G135" s="15"/>
-    </row>
-    <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G135" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D136" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F136" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G136" s="15"/>
-    </row>
-    <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G136" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D137" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F137" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G137" s="15"/>
-    </row>
-    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G137" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F138" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G138" s="15"/>
-    </row>
-    <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G138" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>72</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F139" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G139" s="15"/>
-    </row>
-    <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G139" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F140" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G140" s="15"/>
-    </row>
-    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G140" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>76</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F141" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G141" s="15"/>
-    </row>
-    <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G141" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D142" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F142" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G142" s="15"/>
-    </row>
-    <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G142" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F143" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G143" s="15"/>
-    </row>
-    <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G143" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F144" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G144" s="15"/>
-    </row>
-    <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G144" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F145" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G145" s="15"/>
-    </row>
-    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G145" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F146" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G146" s="15"/>
-    </row>
-    <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G146" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F147" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G147" s="15"/>
-    </row>
-    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G147" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>90</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F148" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G148" s="15"/>
-    </row>
-    <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G148" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D149" s="20" t="s">
         <v>92</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F149" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G149" s="15"/>
-    </row>
-    <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G149" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D150" s="20" t="s">
         <v>94</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F150" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G150" s="15"/>
-    </row>
-    <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G150" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D151" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F151" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G151" s="15"/>
-    </row>
-    <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G151" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D152" s="20" t="s">
         <v>98</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F152" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G152" s="15"/>
-    </row>
-    <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G152" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D153" s="20" t="s">
         <v>101</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F153" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G153" s="15"/>
-    </row>
-    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G153" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F154" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G154" s="15"/>
-    </row>
-    <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G154" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F155" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G155" s="15"/>
-    </row>
-    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G155" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F156" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G156" s="15"/>
-    </row>
-    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G156" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F157" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G157" s="15"/>
-    </row>
-    <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G157" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F158" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G158" s="15"/>
-    </row>
-    <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G158" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F159" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G159" s="15"/>
-    </row>
-    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G159" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F160" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G160" s="15"/>
-    </row>
-    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G160" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F161" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G161" s="15"/>
-    </row>
-    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G161" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F162" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G162" s="15"/>
-    </row>
-    <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G162" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F163" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G163" s="15"/>
-    </row>
-    <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G163" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F164" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G164" s="15"/>
-    </row>
-    <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G164" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F165" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G165" s="15"/>
-    </row>
-    <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G165" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F166" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G166" s="15"/>
-    </row>
-    <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G166" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F167" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G167" s="15"/>
-    </row>
-    <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G167" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F168" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G168" s="15"/>
-    </row>
-    <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G168" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F169" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G169" s="15"/>
-    </row>
-    <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G169" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F170" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G170" s="15"/>
-    </row>
-    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G170" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F171" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G171" s="15"/>
+      <c r="G171" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F172" s="22" t="s">
         <v>63</v>
@@ -6847,16 +9067,16 @@
         <v>58</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F173" s="22" t="s">
         <v>63</v>
@@ -6871,13 +9091,13 @@
         <v>20</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D174" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F174" s="22" t="s">
         <v>63</v>
@@ -6892,20 +9112,20 @@
         <v>20</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D175" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F175" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G175" s="15"/>
     </row>
-    <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="20" t="s">
         <v>58</v>
       </c>
@@ -6913,18 +9133,23 @@
         <v>20</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D176" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F176" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G176" s="15"/>
+      <c r="G176" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="20" t="s">
@@ -6934,13 +9159,13 @@
         <v>20</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D177" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F177" s="22" t="s">
         <v>63</v>
@@ -6955,13 +9180,13 @@
         <v>20</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D178" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F178" s="22" t="s">
         <v>63</v>
@@ -6976,13 +9201,13 @@
         <v>20</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D179" s="20" t="s">
         <v>72</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F179" s="22" t="s">
         <v>63</v>
@@ -6997,20 +9222,20 @@
         <v>20</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D180" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E180" s="21" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F180" s="22" t="s">
         <v>63</v>
       </c>
       <c r="G180" s="15"/>
     </row>
-    <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="20" t="s">
         <v>58</v>
       </c>
@@ -7018,16 +9243,16 @@
         <v>20</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D181" s="20" t="s">
         <v>76</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="F181" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G181" s="15"/>
     </row>
@@ -7039,20 +9264,20 @@
         <v>20</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D182" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F182" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G182" s="15"/>
     </row>
-    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="20" t="s">
         <v>58</v>
       </c>
@@ -7060,20 +9285,20 @@
         <v>20</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D183" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F183" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G183" s="15"/>
     </row>
-    <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="20" t="s">
         <v>58</v>
       </c>
@@ -7081,100 +9306,115 @@
         <v>20</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D184" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G184" s="15"/>
     </row>
-    <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D185" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F185" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G185" s="15"/>
-    </row>
-    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G185" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D186" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F186" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G186" s="15"/>
-    </row>
-    <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G186" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D187" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F187" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G187" s="20"/>
+      <c r="G187" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D188" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="F188" s="22" t="s">
-        <v>103</v>
+        <v>410</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="G188" s="15"/>
     </row>
@@ -7183,19 +9423,19 @@
         <v>25</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D189" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F189" s="22" t="s">
-        <v>103</v>
+        <v>411</v>
+      </c>
+      <c r="F189" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="G189" s="15"/>
     </row>
@@ -7204,19 +9444,19 @@
         <v>25</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D190" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="F190" s="22" t="s">
-        <v>103</v>
+        <v>412</v>
+      </c>
+      <c r="F190" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="G190" s="15"/>
     </row>
@@ -7225,19 +9465,19 @@
         <v>25</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D191" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="F191" s="22" t="s">
-        <v>103</v>
+        <v>413</v>
+      </c>
+      <c r="F191" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="G191" s="15"/>
     </row>
@@ -7246,226 +9486,276 @@
         <v>25</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D192" s="20" t="s">
         <v>72</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="F192" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G192" s="15"/>
+      <c r="G192" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D193" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F193" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G193" s="20"/>
+      <c r="G193" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D194" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F194" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G194" s="15"/>
+      <c r="G194" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D195" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E195" s="21" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="F195" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G195" s="15"/>
+      <c r="G195" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D196" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E196" s="21" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F196" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G196" s="15"/>
+      <c r="G196" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D197" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E197" s="21" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="F197" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G197" s="15"/>
+      <c r="G197" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D198" s="20" t="s">
         <v>72</v>
       </c>
       <c r="E198" s="21" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="F198" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G198" s="15"/>
+      <c r="G198" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D199" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E199" s="21" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="F199" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G199" s="20"/>
+      <c r="G199" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D200" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E200" s="21" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="F200" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G200" s="20"/>
+      <c r="G200" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D201" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E201" s="21" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F201" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G201" s="15"/>
+      <c r="G201" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D202" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E202" s="21" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="F202" s="22" t="s">
         <v>63</v>
@@ -7477,184 +9767,224 @@
         <v>58</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D203" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E203" s="21" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F203" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G203" s="15"/>
+      <c r="G203" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D204" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E204" s="21" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="F204" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G204" s="15"/>
+      <c r="G204" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D205" s="20" t="s">
         <v>72</v>
       </c>
       <c r="E205" s="21" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="F205" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G205" s="15"/>
+      <c r="G205" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D206" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E206" s="21" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="F206" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G206" s="15"/>
+      <c r="G206" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D207" s="20" t="s">
         <v>76</v>
       </c>
       <c r="E207" s="21" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="F207" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G207" s="15"/>
+      <c r="G207" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D208" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E208" s="21" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="F208" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G208" s="15"/>
+      <c r="G208" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D209" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E209" s="21" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="F209" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G209" s="20"/>
+      <c r="G209" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D210" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E210" s="21" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="F210" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G210" s="15"/>
+      <c r="G210" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D211" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E211" s="21" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="F211" s="22" t="s">
         <v>63</v>
@@ -7666,100 +9996,116 @@
         <v>58</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D212" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E212" s="21" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="F212" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G212" s="15"/>
+      <c r="G212" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D213" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F213" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G213" s="15"/>
+      <c r="G213" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D214" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="F214" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G214" s="20"/>
-    </row>
-    <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G214" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D215" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E215" s="21" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="F215" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G215" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="G215" s="15"/>
+      <c r="H215" s="22"/>
     </row>
     <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D216" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E216" s="21" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="F216" s="22" t="s">
         <v>63</v>
@@ -7771,16 +10117,16 @@
         <v>58</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="D217" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E217" s="21" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="F217" s="22" t="s">
         <v>63</v>
@@ -7805,7 +10151,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7813,7 +10159,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -7821,7 +10167,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="24" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H1" s="24"/>
     </row>
@@ -7841,7 +10187,7 @@
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="27" t="n">
@@ -7855,11 +10201,11 @@
     </row>
     <row r="4" customFormat="false" ht="105.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="28" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -7869,11 +10215,11 @@
     </row>
     <row r="5" customFormat="false" ht="105.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="28" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -7883,11 +10229,11 @@
     </row>
     <row r="6" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="28" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -7897,11 +10243,11 @@
     </row>
     <row r="7" customFormat="false" ht="160.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="28" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -7911,11 +10257,11 @@
     </row>
     <row r="8" customFormat="false" ht="76.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="28" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -7959,7 +10305,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -7967,7 +10313,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -7975,7 +10321,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="24" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H1" s="24"/>
     </row>
@@ -7995,7 +10341,7 @@
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="27" t="n">
@@ -8009,11 +10355,11 @@
     </row>
     <row r="4" customFormat="false" ht="105.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="28" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -8023,11 +10369,11 @@
     </row>
     <row r="5" customFormat="false" ht="105.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="28" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -8037,11 +10383,11 @@
     </row>
     <row r="6" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="28" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -8051,11 +10397,11 @@
     </row>
     <row r="7" customFormat="false" ht="97.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="28" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -8065,11 +10411,11 @@
     </row>
     <row r="8" customFormat="false" ht="101.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="28" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -8113,7 +10459,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -8121,7 +10467,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -8129,7 +10475,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="24" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H1" s="24"/>
     </row>
@@ -8149,7 +10495,7 @@
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="27" t="n">
@@ -8163,11 +10509,11 @@
     </row>
     <row r="4" customFormat="false" ht="129.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="28" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -8177,11 +10523,11 @@
     </row>
     <row r="5" customFormat="false" ht="125.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="28" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -8191,11 +10537,11 @@
     </row>
     <row r="6" customFormat="false" ht="84.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="28" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -8205,11 +10551,11 @@
     </row>
     <row r="7" customFormat="false" ht="232.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="28" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -8219,11 +10565,11 @@
     </row>
     <row r="8" customFormat="false" ht="121.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="28" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -8267,7 +10613,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8275,7 +10621,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -8283,7 +10629,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="24" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H1" s="24"/>
     </row>
@@ -8303,7 +10649,7 @@
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="27" t="n">
@@ -8317,7 +10663,7 @@
     </row>
     <row r="4" customFormat="false" ht="129.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="28"/>
@@ -8329,7 +10675,7 @@
     </row>
     <row r="5" customFormat="false" ht="125.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="28"/>
@@ -8341,7 +10687,7 @@
     </row>
     <row r="6" customFormat="false" ht="84.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="28"/>
@@ -8353,7 +10699,7 @@
     </row>
     <row r="7" customFormat="false" ht="232.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="28"/>
@@ -8365,7 +10711,7 @@
     </row>
     <row r="8" customFormat="false" ht="121.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="28"/>
@@ -8411,7 +10757,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -8419,7 +10765,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -8427,7 +10773,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="24" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H1" s="24"/>
     </row>
@@ -8447,7 +10793,7 @@
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="27" t="n">
@@ -8461,11 +10807,11 @@
     </row>
     <row r="4" customFormat="false" ht="129.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="28" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -8475,11 +10821,11 @@
     </row>
     <row r="5" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="28" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -8489,11 +10835,11 @@
     </row>
     <row r="6" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="28" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -8503,11 +10849,11 @@
     </row>
     <row r="7" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="28" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -8517,11 +10863,11 @@
     </row>
     <row r="8" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="28" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -8565,7 +10911,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -8573,7 +10919,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -8581,7 +10927,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="24" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H1" s="24"/>
     </row>
@@ -8601,7 +10947,7 @@
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="27" t="n">
@@ -8615,11 +10961,11 @@
     </row>
     <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="28" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -8629,11 +10975,11 @@
     </row>
     <row r="5" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="28" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -8643,11 +10989,11 @@
     </row>
     <row r="6" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="28" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -8657,11 +11003,11 @@
     </row>
     <row r="7" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="28" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -8671,11 +11017,11 @@
     </row>
     <row r="8" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="28" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
